--- a/documents/analyse_uml/usecase_textuel/use_case_administrer/Modifieradmin.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_administrer/Modifieradmin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50C5AD7-A31A-4BE2-B13D-1F902FD8CDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45868682-9516-4C65-B610-62FA22CF0A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{0608FE9C-E684-4F6C-B140-0DBF86D43D2C}"/>
   </bookViews>
@@ -165,43 +165,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E2) Erreur serveur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a lieu au point 6) du nominal
-Quideance affiche un message d'erreur adéquat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>On sort du USE CASE sur un échec</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>NOM DU USE CASE</t>
     </r>
     <r>
@@ -301,6 +264,43 @@
   <si>
     <t>7) Quideance redirige vers la page d'aministration
 Affichage d'un message "Modification effectuée avec succès"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2) L'enregistrement ne se valide pas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 6) du nominal
+Quideance affiche un message d'erreur adéquat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On sort du USE CASE sur un échec</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -426,10 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -439,6 +435,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED592696-D232-4534-AD9E-0C6904FB7BBA}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,32 +769,32 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="105.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
     </row>
     <row r="5" spans="1:4" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -814,14 +814,14 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -842,18 +842,18 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="91.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -862,41 +862,6 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/analyse_uml/usecase_textuel/use_case_administrer/Modifieradmin.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_administrer/Modifieradmin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45868682-9516-4C65-B610-62FA22CF0A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1B296F-3987-4651-9FFD-21907A2960BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{0608FE9C-E684-4F6C-B140-0DBF86D43D2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0608FE9C-E684-4F6C-B140-0DBF86D43D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -117,43 +117,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>4) Quideance vérifie que le formulaire est correctement renseigné</t>
-  </si>
-  <si>
-    <t>5) Quideance vérifie que l'email soit rempli
-Quideance vérifie que le mot de passe soit rempli
-Quideance vérifie que le rôle est sélectionné</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A1) Le formulaire n'est pas renseigné correctement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a lieu au point 5) du nominal
-Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal
-</t>
-    </r>
-  </si>
-  <si>
-    <t>6) Quideance enregistre le formulaire</t>
   </si>
   <si>
     <r>
@@ -262,7 +225,15 @@
     <t>3) L'administrateur modifie les champs et poste le formulaire</t>
   </si>
   <si>
-    <t>7) Quideance redirige vers la page d'aministration
+    <t>4) Quideance vérifie que l'email soit rempli
+Quideance vérifie que le mot de passe soit rempli
+Quideance vérifie que le rôle est sélectionné</t>
+  </si>
+  <si>
+    <t>5) Quideance enregistre le formulaire</t>
+  </si>
+  <si>
+    <t>6) Quideance redirige vers la page d'aministration
 Affichage d'un message "Modification effectuée avec succès"</t>
   </si>
   <si>
@@ -275,6 +246,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>A1) Le formulaire n'est pas renseigné correctement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a lieu au point 4) du nominal
+Quideance affiche un message d'erreur adéquat et retourne au point 3) du nominal
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>E2) L'enregistrement ne se valide pas</t>
     </r>
     <r>
@@ -286,7 +283,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-a lieu au point 6) du nominal
+a lieu au point 5) du nominal
 Quideance affiche un message d'erreur adéquat
 </t>
     </r>
@@ -753,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED592696-D232-4534-AD9E-0C6904FB7BBA}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -779,10 +776,10 @@
     </row>
     <row r="2" spans="1:4" ht="105.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="6"/>
@@ -805,7 +802,7 @@
     </row>
     <row r="5" spans="1:4" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -814,54 +811,47 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="91.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="91.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
